--- a/03_Outputs/all/01_TablasDescriptivas/idx13_saludmental_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx13_saludmental_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>4.945615416244034</v>
+        <v>4.945615416244032</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.588882422796205</v>
+        <v>3.58888242279621</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.9905433984387303</v>
+        <v>0.9905433984387301</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.5064572730113541</v>
+        <v>0.5064572730113543</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1808369160628961</v>
+        <v>0.1808369160628964</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.07913941695469615</v>
+        <v>0.07913941695469592</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.05340160401048533</v>
+        <v>0.05340160401048527</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.01499318459693418</v>
+        <v>0.01499318459693417</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.0005603086436913455</v>
+        <v>0.0005603086436913461</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>4.945615416244034</v>
+        <v>4.945615416244032</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>8.534497839040238</v>
+        <v>8.534497839040242</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>9.813322080000969</v>
+        <v>9.813322080000972</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>11.31032275145105</v>
+        <v>11.31032275145106</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>11.65813485707309</v>
+        <v>11.6581348570731</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.9865059786981</v>
+        <v>11.98650597869811</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>11.9994396913563</v>
+        <v>11.99943969135631</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>41.21346180203363</v>
+        <v>41.2134618020336</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>29.90735352330172</v>
+        <v>29.90735352330175</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>8.254528320322754</v>
+        <v>8.25452832032275</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>4.220477275094619</v>
+        <v>4.22047727509462</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>2.898434213517003</v>
+        <v>2.898434213517002</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.506974300524135</v>
+        <v>1.506974300524137</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6594951412891348</v>
+        <v>0.6594951412891327</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.4450133667540445</v>
+        <v>0.4450133667540439</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.1249432049744515</v>
+        <v>0.1249432049744514</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.1077809388183273</v>
+        <v>0.1077809388183272</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.00466923869742788</v>
+        <v>0.004669238697427885</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>41.21346180203363</v>
+        <v>41.2134618020336</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>71.12081532533534</v>
+        <v>71.12081532533536</v>
       </c>
       <c r="C39">
         <v>2</v>
